--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.0178789217252</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H2">
-        <v>16.0178789217252</v>
+        <v>401.894039</v>
       </c>
       <c r="I2">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J2">
-        <v>0.04520438385582615</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.425605252974548</v>
+        <v>0.3326186666666667</v>
       </c>
       <c r="N2">
-        <v>0.425605252974548</v>
+        <v>0.9978560000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3213922220876632</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3213922220876632</v>
       </c>
       <c r="Q2">
-        <v>6.817293410596533</v>
+        <v>44.55915313115378</v>
       </c>
       <c r="R2">
-        <v>6.817293410596533</v>
+        <v>401.0323781803841</v>
       </c>
       <c r="S2">
-        <v>0.04520438385582615</v>
+        <v>0.08983328538758398</v>
       </c>
       <c r="T2">
-        <v>0.04520438385582615</v>
+        <v>0.08983328538758395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>276.410742670589</v>
+        <v>133.9646796666667</v>
       </c>
       <c r="H3">
-        <v>276.410742670589</v>
+        <v>401.894039</v>
       </c>
       <c r="I3">
-        <v>0.7800644126862661</v>
+        <v>0.2795129415517746</v>
       </c>
       <c r="J3">
-        <v>0.7800644126862661</v>
+        <v>0.2795129415517745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.425605252974548</v>
+        <v>0.702312</v>
       </c>
       <c r="N3">
-        <v>0.425605252974548</v>
+        <v>2.106936</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6786077779123368</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6786077779123368</v>
       </c>
       <c r="Q3">
-        <v>117.6418640591987</v>
+        <v>94.08500210605602</v>
       </c>
       <c r="R3">
-        <v>117.6418640591987</v>
+        <v>846.7650189545041</v>
       </c>
       <c r="S3">
-        <v>0.7800644126862661</v>
+        <v>0.1896796561641907</v>
       </c>
       <c r="T3">
-        <v>0.7800644126862661</v>
+        <v>0.1896796561641906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>276.4348856666666</v>
+      </c>
+      <c r="H4">
+        <v>829.3046569999999</v>
+      </c>
+      <c r="I4">
+        <v>0.5767723868147629</v>
+      </c>
+      <c r="J4">
+        <v>0.5767723868147629</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.3326186666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.9978560000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.3213922220876632</v>
+      </c>
+      <c r="P4">
+        <v>0.3213922220876632</v>
+      </c>
+      <c r="Q4">
+        <v>91.9474030905991</v>
+      </c>
+      <c r="R4">
+        <v>827.526627815392</v>
+      </c>
+      <c r="S4">
+        <v>0.1853701590372019</v>
+      </c>
+      <c r="T4">
+        <v>0.1853701590372019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>61.9148636062069</v>
-      </c>
-      <c r="H4">
-        <v>61.9148636062069</v>
-      </c>
-      <c r="I4">
-        <v>0.1747312034579077</v>
-      </c>
-      <c r="J4">
-        <v>0.1747312034579077</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.425605252974548</v>
-      </c>
-      <c r="N4">
-        <v>0.425605252974548</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>26.35129118800432</v>
-      </c>
-      <c r="R4">
-        <v>26.35129118800432</v>
-      </c>
-      <c r="S4">
-        <v>0.1747312034579077</v>
-      </c>
-      <c r="T4">
-        <v>0.1747312034579077</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>276.4348856666666</v>
+      </c>
+      <c r="H5">
+        <v>829.3046569999999</v>
+      </c>
+      <c r="I5">
+        <v>0.5767723868147629</v>
+      </c>
+      <c r="J5">
+        <v>0.5767723868147629</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.702312</v>
+      </c>
+      <c r="N5">
+        <v>2.106936</v>
+      </c>
+      <c r="O5">
+        <v>0.6786077779123368</v>
+      </c>
+      <c r="P5">
+        <v>0.6786077779123368</v>
+      </c>
+      <c r="Q5">
+        <v>194.143537422328</v>
+      </c>
+      <c r="R5">
+        <v>1747.291836800952</v>
+      </c>
+      <c r="S5">
+        <v>0.3914022277775611</v>
+      </c>
+      <c r="T5">
+        <v>0.3914022277775611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>68.87942233333334</v>
+      </c>
+      <c r="H6">
+        <v>206.638267</v>
+      </c>
+      <c r="I6">
+        <v>0.1437146716334625</v>
+      </c>
+      <c r="J6">
+        <v>0.1437146716334625</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3326186666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.9978560000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.3213922220876632</v>
+      </c>
+      <c r="P6">
+        <v>0.3213922220876632</v>
+      </c>
+      <c r="Q6">
+        <v>22.91058161728356</v>
+      </c>
+      <c r="R6">
+        <v>206.195234555552</v>
+      </c>
+      <c r="S6">
+        <v>0.04618877766287739</v>
+      </c>
+      <c r="T6">
+        <v>0.04618877766287738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>68.87942233333334</v>
+      </c>
+      <c r="H7">
+        <v>206.638267</v>
+      </c>
+      <c r="I7">
+        <v>0.1437146716334625</v>
+      </c>
+      <c r="J7">
+        <v>0.1437146716334625</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.702312</v>
+      </c>
+      <c r="N7">
+        <v>2.106936</v>
+      </c>
+      <c r="O7">
+        <v>0.6786077779123368</v>
+      </c>
+      <c r="P7">
+        <v>0.6786077779123368</v>
+      </c>
+      <c r="Q7">
+        <v>48.374844857768</v>
+      </c>
+      <c r="R7">
+        <v>435.3736037199121</v>
+      </c>
+      <c r="S7">
+        <v>0.09752589397058517</v>
+      </c>
+      <c r="T7">
+        <v>0.09752589397058516</v>
       </c>
     </row>
   </sheetData>
